--- a/Document/05_クラス図.xlsx
+++ b/Document/05_クラス図.xlsx
@@ -642,7 +642,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>+ AccessDB(): connection</a:t>
+              <a:t>+ construct(): connection</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -938,7 +938,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>+ InsertDB(connection, pstmt)</a:t>
+              <a:t>+ insertDB(connection, pstmt)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -2340,7 +2340,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>Message.php</a:t>
+              <a:t>ModelException.php</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -2381,7 +2381,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>- messages[id, message]</a:t>
+              <a:t>- ErrMsg[cord =&gt; array()]</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2421,11 +2421,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-              <a:t> getMassge(): messages</a:t>
+              <a:t>+ construct()</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -2726,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
